--- a/HVAC-Signal-Processing-Room/Heat-Load-Calculation.xlsx
+++ b/HVAC-Signal-Processing-Room/Heat-Load-Calculation.xlsx
@@ -8,14 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/pollak/Documents/GitHub/Front-Page/HVAC-Signal-Processing-Room/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{141E7A6D-827E-7A4D-B045-98F05B39895D}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{24FA706A-1A0D-7949-8C7D-8FA2B7271FF3}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="56060" yWindow="460" windowWidth="18160" windowHeight="24100" xr2:uid="{D45A1780-0C9F-B74A-8B8A-CFC9344D9ADA}"/>
+    <workbookView xWindow="61040" yWindow="460" windowWidth="24580" windowHeight="26040" xr2:uid="{D45A1780-0C9F-B74A-8B8A-CFC9344D9ADA}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -214,18 +214,9 @@
   <cellXfs count="19">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="2" fontId="2" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
@@ -236,13 +227,22 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="2" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="2" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
   </cellXfs>
@@ -561,212 +561,212 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{06675C7E-7244-CA47-BE3B-A2B799861F4B}">
   <dimension ref="A1:P54"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K44" sqref="K44"/>
+    <sheetView tabSelected="1" zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
+      <selection activeCell="F5" sqref="F5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <sheetData>
     <row r="1" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A1" s="2" t="s">
+      <c r="A1" s="17" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2"/>
-      <c r="C1" s="2"/>
-      <c r="D1" s="2"/>
-      <c r="E1" s="2"/>
-      <c r="F1" s="2"/>
-      <c r="G1" s="2"/>
-      <c r="H1" s="2"/>
-      <c r="I1" s="2"/>
-      <c r="J1" s="12"/>
-      <c r="K1" s="12"/>
-      <c r="L1" s="12"/>
-      <c r="M1" s="12"/>
-      <c r="N1" s="12"/>
-      <c r="O1" s="12"/>
-      <c r="P1" s="12"/>
+      <c r="B1" s="17"/>
+      <c r="C1" s="17"/>
+      <c r="D1" s="17"/>
+      <c r="E1" s="17"/>
+      <c r="F1" s="17"/>
+      <c r="G1" s="17"/>
+      <c r="H1" s="17"/>
+      <c r="I1" s="17"/>
+      <c r="J1" s="9"/>
+      <c r="K1" s="9"/>
+      <c r="L1" s="9"/>
+      <c r="M1" s="9"/>
+      <c r="N1" s="9"/>
+      <c r="O1" s="9"/>
+      <c r="P1" s="9"/>
     </row>
     <row r="2" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A2" s="6" t="s">
-        <v>1</v>
-      </c>
-      <c r="B2" s="6"/>
-      <c r="J2" s="13"/>
-      <c r="K2" s="13"/>
-      <c r="L2" s="13"/>
-      <c r="M2" s="13"/>
-      <c r="N2" s="13"/>
-      <c r="O2" s="13"/>
-      <c r="P2" s="13"/>
+      <c r="A2" s="18" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" s="18"/>
+      <c r="J2" s="10"/>
+      <c r="K2" s="10"/>
+      <c r="L2" s="10"/>
+      <c r="M2" s="10"/>
+      <c r="N2" s="10"/>
+      <c r="O2" s="10"/>
+      <c r="P2" s="10"/>
     </row>
     <row r="3" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A3" s="7"/>
-      <c r="B3" s="7"/>
-      <c r="J3" s="13"/>
-      <c r="K3" s="13"/>
-      <c r="L3" s="13"/>
-      <c r="M3" s="13"/>
-      <c r="N3" s="13"/>
-      <c r="O3" s="13"/>
-      <c r="P3" s="13"/>
+      <c r="A3" s="5"/>
+      <c r="B3" s="5"/>
+      <c r="J3" s="10"/>
+      <c r="K3" s="10"/>
+      <c r="L3" s="10"/>
+      <c r="M3" s="10"/>
+      <c r="N3" s="10"/>
+      <c r="O3" s="10"/>
+      <c r="P3" s="10"/>
     </row>
     <row r="4" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A4" s="8" t="s">
+      <c r="A4" s="14" t="s">
         <v>2</v>
       </c>
-      <c r="B4" s="8"/>
+      <c r="B4" s="14"/>
       <c r="F4">
-        <v>10</v>
+        <v>22</v>
       </c>
       <c r="G4" t="s">
         <v>3</v>
       </c>
-      <c r="H4" s="3">
+      <c r="H4" s="2">
         <f>F4*3.5168525</f>
-        <v>35.168525000000002</v>
+        <v>77.370755000000003</v>
       </c>
       <c r="I4" t="s">
         <v>4</v>
       </c>
-      <c r="J4" s="13"/>
-      <c r="K4" s="13"/>
-      <c r="L4" s="13"/>
-      <c r="M4" s="13"/>
-      <c r="N4" s="13"/>
-      <c r="O4" s="13"/>
-      <c r="P4" s="13"/>
+      <c r="J4" s="10"/>
+      <c r="K4" s="10"/>
+      <c r="L4" s="10"/>
+      <c r="M4" s="10"/>
+      <c r="N4" s="10"/>
+      <c r="O4" s="10"/>
+      <c r="P4" s="10"/>
     </row>
     <row r="5" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A5" s="8" t="s">
+      <c r="A5" s="14" t="s">
         <v>5</v>
       </c>
-      <c r="B5" s="8"/>
+      <c r="B5" s="14"/>
       <c r="F5">
         <v>4</v>
       </c>
       <c r="G5" t="s">
         <v>3</v>
       </c>
-      <c r="H5" s="3">
+      <c r="H5" s="2">
         <f t="shared" ref="H5:H6" si="0">F5*3.5168525</f>
         <v>14.067410000000001</v>
       </c>
       <c r="I5" t="s">
         <v>4</v>
       </c>
-      <c r="J5" s="13"/>
-      <c r="K5" s="13"/>
-      <c r="L5" s="13"/>
-      <c r="M5" s="13"/>
-      <c r="N5" s="13"/>
-      <c r="O5" s="13"/>
-      <c r="P5" s="13"/>
+      <c r="J5" s="10"/>
+      <c r="K5" s="10"/>
+      <c r="L5" s="10"/>
+      <c r="M5" s="10"/>
+      <c r="N5" s="10"/>
+      <c r="O5" s="10"/>
+      <c r="P5" s="10"/>
     </row>
     <row r="6" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A6" s="8" t="s">
+      <c r="A6" s="14" t="s">
         <v>6</v>
       </c>
-      <c r="B6" s="8"/>
+      <c r="B6" s="14"/>
       <c r="F6">
         <v>4</v>
       </c>
       <c r="G6" t="s">
         <v>3</v>
       </c>
-      <c r="H6" s="3">
+      <c r="H6" s="2">
         <f t="shared" si="0"/>
         <v>14.067410000000001</v>
       </c>
       <c r="I6" t="s">
         <v>4</v>
       </c>
-      <c r="J6" s="13"/>
-      <c r="K6" s="13"/>
-      <c r="L6" s="13"/>
-      <c r="M6" s="13"/>
-      <c r="N6" s="13"/>
-      <c r="O6" s="13"/>
-      <c r="P6" s="13"/>
+      <c r="J6" s="10"/>
+      <c r="K6" s="10"/>
+      <c r="L6" s="10"/>
+      <c r="M6" s="10"/>
+      <c r="N6" s="10"/>
+      <c r="O6" s="10"/>
+      <c r="P6" s="10"/>
     </row>
     <row r="7" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="J7" s="13"/>
-      <c r="K7" s="13"/>
-      <c r="L7" s="13"/>
-      <c r="M7" s="13"/>
-      <c r="N7" s="13"/>
-      <c r="O7" s="13"/>
-      <c r="P7" s="13"/>
+      <c r="J7" s="10"/>
+      <c r="K7" s="10"/>
+      <c r="L7" s="10"/>
+      <c r="M7" s="10"/>
+      <c r="N7" s="10"/>
+      <c r="O7" s="10"/>
+      <c r="P7" s="10"/>
     </row>
     <row r="8" spans="1:16" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="H8" s="4">
+      <c r="H8" s="3">
         <f>SUM(H4:H6)</f>
-        <v>63.303345000000007</v>
-      </c>
-      <c r="I8" s="5" t="s">
-        <v>4</v>
-      </c>
-      <c r="J8" s="13"/>
-      <c r="K8" s="13"/>
-      <c r="L8" s="13"/>
-      <c r="M8" s="13"/>
-      <c r="N8" s="13"/>
-      <c r="O8" s="13"/>
-      <c r="P8" s="13"/>
+        <v>105.50557499999999</v>
+      </c>
+      <c r="I8" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="J8" s="10"/>
+      <c r="K8" s="10"/>
+      <c r="L8" s="10"/>
+      <c r="M8" s="10"/>
+      <c r="N8" s="10"/>
+      <c r="O8" s="10"/>
+      <c r="P8" s="10"/>
     </row>
     <row r="9" spans="1:16" ht="17" thickTop="1" x14ac:dyDescent="0.2">
-      <c r="J9" s="13"/>
-      <c r="K9" s="13"/>
-      <c r="L9" s="13"/>
-      <c r="M9" s="13"/>
-      <c r="N9" s="13"/>
-      <c r="O9" s="13"/>
-      <c r="P9" s="13"/>
+      <c r="J9" s="10"/>
+      <c r="K9" s="10"/>
+      <c r="L9" s="10"/>
+      <c r="M9" s="10"/>
+      <c r="N9" s="10"/>
+      <c r="O9" s="10"/>
+      <c r="P9" s="10"/>
     </row>
     <row r="10" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="J10" s="13"/>
-      <c r="K10" s="13"/>
-      <c r="L10" s="13"/>
-      <c r="M10" s="13"/>
-      <c r="N10" s="13"/>
-      <c r="O10" s="13"/>
-      <c r="P10" s="13"/>
+      <c r="J10" s="10"/>
+      <c r="K10" s="10"/>
+      <c r="L10" s="10"/>
+      <c r="M10" s="10"/>
+      <c r="N10" s="10"/>
+      <c r="O10" s="10"/>
+      <c r="P10" s="10"/>
     </row>
     <row r="11" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A11" s="2" t="s">
+      <c r="A11" s="17" t="s">
         <v>7</v>
       </c>
-      <c r="B11" s="2"/>
-      <c r="C11" s="2"/>
-      <c r="D11" s="2"/>
-      <c r="E11" s="2"/>
-      <c r="F11" s="2"/>
-      <c r="G11" s="2"/>
-      <c r="H11" s="2"/>
-      <c r="I11" s="2"/>
-      <c r="J11" s="12"/>
-      <c r="K11" s="12"/>
-      <c r="L11" s="12"/>
-      <c r="M11" s="12"/>
-      <c r="N11" s="12"/>
-      <c r="O11" s="12"/>
-      <c r="P11" s="12"/>
+      <c r="B11" s="17"/>
+      <c r="C11" s="17"/>
+      <c r="D11" s="17"/>
+      <c r="E11" s="17"/>
+      <c r="F11" s="17"/>
+      <c r="G11" s="17"/>
+      <c r="H11" s="17"/>
+      <c r="I11" s="17"/>
+      <c r="J11" s="9"/>
+      <c r="K11" s="9"/>
+      <c r="L11" s="9"/>
+      <c r="M11" s="9"/>
+      <c r="N11" s="9"/>
+      <c r="O11" s="9"/>
+      <c r="P11" s="9"/>
     </row>
     <row r="12" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A12" s="6" t="s">
-        <v>1</v>
-      </c>
-      <c r="B12" s="6"/>
+      <c r="A12" s="18" t="s">
+        <v>1</v>
+      </c>
+      <c r="B12" s="18"/>
     </row>
     <row r="13" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A13" s="9"/>
-      <c r="B13" s="9"/>
+      <c r="A13" s="6"/>
+      <c r="B13" s="6"/>
     </row>
     <row r="14" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A14" s="8" t="s">
+      <c r="A14" s="14" t="s">
         <v>13</v>
       </c>
-      <c r="B14" s="8"/>
+      <c r="B14" s="14"/>
       <c r="D14">
         <v>1</v>
       </c>
@@ -780,7 +780,7 @@
         <v>10</v>
       </c>
       <c r="H14">
-        <f>D14*F14/1000</f>
+        <f t="shared" ref="H14:H27" si="1">D14*F14/1000</f>
         <v>1.5</v>
       </c>
       <c r="I14" t="s">
@@ -788,10 +788,10 @@
       </c>
     </row>
     <row r="15" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A15" s="8" t="s">
+      <c r="A15" s="14" t="s">
         <v>14</v>
       </c>
-      <c r="B15" s="8"/>
+      <c r="B15" s="14"/>
       <c r="D15">
         <v>1</v>
       </c>
@@ -805,7 +805,7 @@
         <v>10</v>
       </c>
       <c r="H15">
-        <f>D15*F15/1000</f>
+        <f t="shared" si="1"/>
         <v>2</v>
       </c>
       <c r="I15" t="s">
@@ -813,10 +813,10 @@
       </c>
     </row>
     <row r="16" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A16" s="18" t="s">
+      <c r="A16" s="16" t="s">
         <v>22</v>
       </c>
-      <c r="B16" s="18"/>
+      <c r="B16" s="16"/>
       <c r="C16" s="1"/>
       <c r="D16" s="1">
         <v>1</v>
@@ -831,7 +831,7 @@
         <v>10</v>
       </c>
       <c r="H16" s="1">
-        <f>D16*F16/1000</f>
+        <f t="shared" si="1"/>
         <v>1.5</v>
       </c>
       <c r="I16" s="1" t="s">
@@ -839,10 +839,10 @@
       </c>
     </row>
     <row r="17" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A17" s="8" t="s">
+      <c r="A17" s="14" t="s">
         <v>12</v>
       </c>
-      <c r="B17" s="8"/>
+      <c r="B17" s="14"/>
       <c r="D17">
         <v>1</v>
       </c>
@@ -856,7 +856,7 @@
         <v>10</v>
       </c>
       <c r="H17">
-        <f>D17*F17/1000</f>
+        <f t="shared" si="1"/>
         <v>0.5</v>
       </c>
       <c r="I17" t="s">
@@ -864,10 +864,10 @@
       </c>
     </row>
     <row r="18" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A18" s="8" t="s">
+      <c r="A18" s="14" t="s">
         <v>8</v>
       </c>
-      <c r="B18" s="8"/>
+      <c r="B18" s="14"/>
       <c r="D18">
         <v>6</v>
       </c>
@@ -881,7 +881,7 @@
         <v>10</v>
       </c>
       <c r="H18">
-        <f>D18*F18/1000</f>
+        <f t="shared" si="1"/>
         <v>3.6</v>
       </c>
       <c r="I18" t="s">
@@ -889,10 +889,10 @@
       </c>
     </row>
     <row r="19" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A19" s="8" t="s">
+      <c r="A19" s="14" t="s">
         <v>11</v>
       </c>
-      <c r="B19" s="8"/>
+      <c r="B19" s="14"/>
       <c r="D19">
         <v>4</v>
       </c>
@@ -906,7 +906,7 @@
         <v>10</v>
       </c>
       <c r="H19">
-        <f>D19*F19/1000</f>
+        <f t="shared" si="1"/>
         <v>5.2</v>
       </c>
       <c r="I19" t="s">
@@ -914,10 +914,10 @@
       </c>
     </row>
     <row r="20" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A20" s="8" t="s">
+      <c r="A20" s="14" t="s">
         <v>18</v>
       </c>
-      <c r="B20" s="8"/>
+      <c r="B20" s="14"/>
       <c r="D20">
         <v>1</v>
       </c>
@@ -931,7 +931,7 @@
         <v>10</v>
       </c>
       <c r="H20">
-        <f>D20*F20/1000</f>
+        <f t="shared" si="1"/>
         <v>0.5</v>
       </c>
       <c r="I20" t="s">
@@ -939,10 +939,10 @@
       </c>
     </row>
     <row r="21" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A21" s="8" t="s">
+      <c r="A21" s="14" t="s">
         <v>17</v>
       </c>
-      <c r="B21" s="8"/>
+      <c r="B21" s="14"/>
       <c r="D21">
         <v>1</v>
       </c>
@@ -956,7 +956,7 @@
         <v>10</v>
       </c>
       <c r="H21">
-        <f>D21*F21/1000</f>
+        <f t="shared" si="1"/>
         <v>0.6</v>
       </c>
       <c r="I21" t="s">
@@ -964,10 +964,10 @@
       </c>
     </row>
     <row r="22" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A22" s="8" t="s">
+      <c r="A22" s="14" t="s">
         <v>19</v>
       </c>
-      <c r="B22" s="8"/>
+      <c r="B22" s="14"/>
       <c r="D22">
         <v>2</v>
       </c>
@@ -981,7 +981,7 @@
         <v>10</v>
       </c>
       <c r="H22">
-        <f>D22*F22/1000</f>
+        <f t="shared" si="1"/>
         <v>1.2</v>
       </c>
       <c r="I22" t="s">
@@ -989,10 +989,10 @@
       </c>
     </row>
     <row r="23" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A23" s="8" t="s">
+      <c r="A23" s="14" t="s">
         <v>20</v>
       </c>
-      <c r="B23" s="8"/>
+      <c r="B23" s="14"/>
       <c r="D23">
         <v>1</v>
       </c>
@@ -1006,7 +1006,7 @@
         <v>10</v>
       </c>
       <c r="H23">
-        <f>D23*F23/1000</f>
+        <f t="shared" si="1"/>
         <v>0.5</v>
       </c>
       <c r="I23" t="s">
@@ -1014,10 +1014,10 @@
       </c>
     </row>
     <row r="24" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A24" s="8" t="s">
+      <c r="A24" s="14" t="s">
         <v>21</v>
       </c>
-      <c r="B24" s="8"/>
+      <c r="B24" s="14"/>
       <c r="D24">
         <v>4</v>
       </c>
@@ -1031,7 +1031,7 @@
         <v>10</v>
       </c>
       <c r="H24">
-        <f>D24*F24/1000</f>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
       <c r="I24" t="s">
@@ -1039,10 +1039,10 @@
       </c>
     </row>
     <row r="25" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A25" s="18" t="s">
+      <c r="A25" s="16" t="s">
         <v>24</v>
       </c>
-      <c r="B25" s="18"/>
+      <c r="B25" s="16"/>
       <c r="C25" s="1"/>
       <c r="D25" s="1">
         <v>1</v>
@@ -1057,7 +1057,7 @@
         <v>10</v>
       </c>
       <c r="H25" s="1">
-        <f>D25*F25/1000</f>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
       <c r="I25" s="1" t="s">
@@ -1065,10 +1065,10 @@
       </c>
     </row>
     <row r="26" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A26" s="8" t="s">
+      <c r="A26" s="14" t="s">
         <v>15</v>
       </c>
-      <c r="B26" s="8"/>
+      <c r="B26" s="14"/>
       <c r="D26">
         <v>12</v>
       </c>
@@ -1082,7 +1082,7 @@
         <v>10</v>
       </c>
       <c r="H26">
-        <f>D26*F26/1000</f>
+        <f t="shared" si="1"/>
         <v>0.6</v>
       </c>
       <c r="I26" t="s">
@@ -1090,10 +1090,10 @@
       </c>
     </row>
     <row r="27" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A27" s="8" t="s">
+      <c r="A27" s="14" t="s">
         <v>16</v>
       </c>
-      <c r="B27" s="8"/>
+      <c r="B27" s="14"/>
       <c r="D27">
         <v>1</v>
       </c>
@@ -1107,7 +1107,7 @@
         <v>10</v>
       </c>
       <c r="H27">
-        <f>D27*F27/1000</f>
+        <f t="shared" si="1"/>
         <v>0.05</v>
       </c>
       <c r="I27" t="s">
@@ -1115,59 +1115,59 @@
       </c>
     </row>
     <row r="29" spans="1:9" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="H29" s="10">
+      <c r="H29" s="7">
         <f>SUM(H14:H27)</f>
         <v>19.750000000000004</v>
       </c>
-      <c r="I29" s="11" t="s">
+      <c r="I29" s="8" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="30" spans="1:9" ht="17" thickTop="1" x14ac:dyDescent="0.2">
-      <c r="H30" s="16">
+      <c r="H30" s="12">
         <f>$H$8-H29</f>
-        <v>43.553345000000007</v>
-      </c>
-      <c r="I30" s="17" t="s">
+        <v>85.755574999999993</v>
+      </c>
+      <c r="I30" s="13" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="31" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A31" s="7"/>
-      <c r="B31" s="7"/>
+      <c r="A31" s="5"/>
+      <c r="B31" s="5"/>
     </row>
     <row r="32" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A32" s="7"/>
-      <c r="B32" s="7"/>
+      <c r="A32" s="5"/>
+      <c r="B32" s="5"/>
     </row>
     <row r="33" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A33" s="2" t="s">
+      <c r="A33" s="17" t="s">
         <v>25</v>
       </c>
-      <c r="B33" s="2"/>
-      <c r="C33" s="2"/>
-      <c r="D33" s="2"/>
-      <c r="E33" s="2"/>
-      <c r="F33" s="2"/>
-      <c r="G33" s="2"/>
-      <c r="H33" s="2"/>
-      <c r="I33" s="2"/>
+      <c r="B33" s="17"/>
+      <c r="C33" s="17"/>
+      <c r="D33" s="17"/>
+      <c r="E33" s="17"/>
+      <c r="F33" s="17"/>
+      <c r="G33" s="17"/>
+      <c r="H33" s="17"/>
+      <c r="I33" s="17"/>
     </row>
     <row r="34" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A34" s="6" t="s">
-        <v>1</v>
-      </c>
-      <c r="B34" s="6"/>
+      <c r="A34" s="18" t="s">
+        <v>1</v>
+      </c>
+      <c r="B34" s="18"/>
     </row>
     <row r="35" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A35" s="9"/>
-      <c r="B35" s="9"/>
+      <c r="A35" s="6"/>
+      <c r="B35" s="6"/>
     </row>
     <row r="36" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A36" s="8" t="s">
+      <c r="A36" s="14" t="s">
         <v>13</v>
       </c>
-      <c r="B36" s="8"/>
+      <c r="B36" s="14"/>
       <c r="D36">
         <v>1</v>
       </c>
@@ -1181,7 +1181,7 @@
         <v>10</v>
       </c>
       <c r="H36">
-        <f>D36*F36/1000</f>
+        <f t="shared" ref="H36:H50" si="2">D36*F36/1000</f>
         <v>1.5</v>
       </c>
       <c r="I36" t="s">
@@ -1189,10 +1189,10 @@
       </c>
     </row>
     <row r="37" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A37" s="8" t="s">
+      <c r="A37" s="14" t="s">
         <v>14</v>
       </c>
-      <c r="B37" s="8"/>
+      <c r="B37" s="14"/>
       <c r="D37">
         <v>1</v>
       </c>
@@ -1206,7 +1206,7 @@
         <v>10</v>
       </c>
       <c r="H37">
-        <f>D37*F37/1000</f>
+        <f t="shared" si="2"/>
         <v>2</v>
       </c>
       <c r="I37" t="s">
@@ -1214,10 +1214,10 @@
       </c>
     </row>
     <row r="38" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A38" s="18" t="s">
+      <c r="A38" s="16" t="s">
         <v>22</v>
       </c>
-      <c r="B38" s="18"/>
+      <c r="B38" s="16"/>
       <c r="C38" s="1"/>
       <c r="D38" s="1">
         <v>1</v>
@@ -1232,7 +1232,7 @@
         <v>10</v>
       </c>
       <c r="H38" s="1">
-        <f>D38*F38/1000</f>
+        <f t="shared" si="2"/>
         <v>1.5</v>
       </c>
       <c r="I38" s="1" t="s">
@@ -1240,10 +1240,10 @@
       </c>
     </row>
     <row r="39" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A39" s="8" t="s">
+      <c r="A39" s="14" t="s">
         <v>12</v>
       </c>
-      <c r="B39" s="8"/>
+      <c r="B39" s="14"/>
       <c r="D39">
         <v>1</v>
       </c>
@@ -1257,7 +1257,7 @@
         <v>10</v>
       </c>
       <c r="H39">
-        <f>D39*F39/1000</f>
+        <f t="shared" si="2"/>
         <v>0.5</v>
       </c>
       <c r="I39" t="s">
@@ -1265,10 +1265,10 @@
       </c>
     </row>
     <row r="40" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A40" s="8" t="s">
+      <c r="A40" s="14" t="s">
         <v>8</v>
       </c>
-      <c r="B40" s="8"/>
+      <c r="B40" s="14"/>
       <c r="D40">
         <v>6</v>
       </c>
@@ -1282,7 +1282,7 @@
         <v>10</v>
       </c>
       <c r="H40">
-        <f>D40*F40/1000</f>
+        <f t="shared" si="2"/>
         <v>3.6</v>
       </c>
       <c r="I40" t="s">
@@ -1290,36 +1290,36 @@
       </c>
     </row>
     <row r="41" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A41" s="14" t="s">
+      <c r="A41" s="15" t="s">
         <v>11</v>
       </c>
-      <c r="B41" s="14"/>
-      <c r="C41" s="15"/>
-      <c r="D41" s="15">
+      <c r="B41" s="15"/>
+      <c r="C41" s="11"/>
+      <c r="D41" s="11">
         <v>43</v>
       </c>
-      <c r="E41" s="15" t="s">
-        <v>9</v>
-      </c>
-      <c r="F41" s="15">
+      <c r="E41" s="11" t="s">
+        <v>9</v>
+      </c>
+      <c r="F41" s="11">
         <v>1300</v>
       </c>
-      <c r="G41" s="15" t="s">
-        <v>10</v>
-      </c>
-      <c r="H41" s="15">
-        <f>D41*F41/1000</f>
+      <c r="G41" s="11" t="s">
+        <v>10</v>
+      </c>
+      <c r="H41" s="11">
+        <f t="shared" si="2"/>
         <v>55.9</v>
       </c>
-      <c r="I41" s="15" t="s">
+      <c r="I41" s="11" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="42" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A42" s="8" t="s">
+      <c r="A42" s="14" t="s">
         <v>18</v>
       </c>
-      <c r="B42" s="8"/>
+      <c r="B42" s="14"/>
       <c r="D42">
         <v>1</v>
       </c>
@@ -1333,7 +1333,7 @@
         <v>10</v>
       </c>
       <c r="H42">
-        <f>D42*F42/1000</f>
+        <f t="shared" si="2"/>
         <v>0.5</v>
       </c>
       <c r="I42" t="s">
@@ -1341,10 +1341,10 @@
       </c>
     </row>
     <row r="43" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A43" s="8" t="s">
+      <c r="A43" s="14" t="s">
         <v>17</v>
       </c>
-      <c r="B43" s="8"/>
+      <c r="B43" s="14"/>
       <c r="D43">
         <v>1</v>
       </c>
@@ -1358,7 +1358,7 @@
         <v>10</v>
       </c>
       <c r="H43">
-        <f>D43*F43/1000</f>
+        <f t="shared" si="2"/>
         <v>0.6</v>
       </c>
       <c r="I43" t="s">
@@ -1366,10 +1366,10 @@
       </c>
     </row>
     <row r="44" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A44" s="8" t="s">
+      <c r="A44" s="14" t="s">
         <v>19</v>
       </c>
-      <c r="B44" s="8"/>
+      <c r="B44" s="14"/>
       <c r="D44">
         <v>2</v>
       </c>
@@ -1383,7 +1383,7 @@
         <v>10</v>
       </c>
       <c r="H44">
-        <f>D44*F44/1000</f>
+        <f t="shared" si="2"/>
         <v>1.2</v>
       </c>
       <c r="I44" t="s">
@@ -1391,10 +1391,10 @@
       </c>
     </row>
     <row r="45" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A45" s="8" t="s">
+      <c r="A45" s="14" t="s">
         <v>20</v>
       </c>
-      <c r="B45" s="8"/>
+      <c r="B45" s="14"/>
       <c r="D45">
         <v>1</v>
       </c>
@@ -1408,7 +1408,7 @@
         <v>10</v>
       </c>
       <c r="H45">
-        <f>D45*F45/1000</f>
+        <f t="shared" si="2"/>
         <v>0.5</v>
       </c>
       <c r="I45" t="s">
@@ -1416,10 +1416,10 @@
       </c>
     </row>
     <row r="46" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A46" s="8" t="s">
+      <c r="A46" s="14" t="s">
         <v>21</v>
       </c>
-      <c r="B46" s="8"/>
+      <c r="B46" s="14"/>
       <c r="D46">
         <v>4</v>
       </c>
@@ -1433,7 +1433,7 @@
         <v>10</v>
       </c>
       <c r="H46">
-        <f>D46*F46/1000</f>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
       <c r="I46" t="s">
@@ -1441,10 +1441,10 @@
       </c>
     </row>
     <row r="47" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A47" s="18" t="s">
+      <c r="A47" s="16" t="s">
         <v>24</v>
       </c>
-      <c r="B47" s="18"/>
+      <c r="B47" s="16"/>
       <c r="C47" s="1"/>
       <c r="D47" s="1">
         <v>1</v>
@@ -1459,7 +1459,7 @@
         <v>10</v>
       </c>
       <c r="H47" s="1">
-        <f>D47*F47/1000</f>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
       <c r="I47" s="1" t="s">
@@ -1467,10 +1467,10 @@
       </c>
     </row>
     <row r="48" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A48" s="8" t="s">
+      <c r="A48" s="14" t="s">
         <v>15</v>
       </c>
-      <c r="B48" s="8"/>
+      <c r="B48" s="14"/>
       <c r="D48">
         <v>12</v>
       </c>
@@ -1484,7 +1484,7 @@
         <v>10</v>
       </c>
       <c r="H48">
-        <f>D48*F48/1000</f>
+        <f t="shared" si="2"/>
         <v>0.6</v>
       </c>
       <c r="I48" t="s">
@@ -1492,95 +1492,89 @@
       </c>
     </row>
     <row r="49" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A49" s="14" t="s">
+      <c r="A49" s="15" t="s">
         <v>16</v>
       </c>
-      <c r="B49" s="14"/>
-      <c r="C49" s="15"/>
-      <c r="D49" s="15">
+      <c r="B49" s="15"/>
+      <c r="C49" s="11"/>
+      <c r="D49" s="11">
         <v>22</v>
       </c>
-      <c r="E49" s="15" t="s">
-        <v>9</v>
-      </c>
-      <c r="F49" s="15">
+      <c r="E49" s="11" t="s">
+        <v>9</v>
+      </c>
+      <c r="F49" s="11">
         <v>50</v>
       </c>
-      <c r="G49" s="15" t="s">
-        <v>10</v>
-      </c>
-      <c r="H49" s="15">
-        <f>D49*F49/1000</f>
+      <c r="G49" s="11" t="s">
+        <v>10</v>
+      </c>
+      <c r="H49" s="11">
+        <f t="shared" si="2"/>
         <v>1.1000000000000001</v>
       </c>
-      <c r="I49" s="15" t="s">
+      <c r="I49" s="11" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="50" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A50" s="14" t="s">
+      <c r="A50" s="15" t="s">
         <v>26</v>
       </c>
-      <c r="B50" s="14"/>
-      <c r="C50" s="15"/>
-      <c r="D50" s="15">
+      <c r="B50" s="15"/>
+      <c r="C50" s="11"/>
+      <c r="D50" s="11">
         <v>21</v>
       </c>
-      <c r="E50" s="15" t="s">
-        <v>9</v>
-      </c>
-      <c r="F50" s="15">
+      <c r="E50" s="11" t="s">
+        <v>9</v>
+      </c>
+      <c r="F50" s="11">
         <v>180</v>
       </c>
-      <c r="G50" s="15" t="s">
-        <v>10</v>
-      </c>
-      <c r="H50" s="15">
-        <f>D50*F50/1000</f>
+      <c r="G50" s="11" t="s">
+        <v>10</v>
+      </c>
+      <c r="H50" s="11">
+        <f t="shared" si="2"/>
         <v>3.78</v>
       </c>
-      <c r="I50" s="15" t="s">
+      <c r="I50" s="11" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="51" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A51" s="7"/>
-      <c r="B51" s="7"/>
+      <c r="A51" s="5"/>
+      <c r="B51" s="5"/>
     </row>
     <row r="53" spans="1:9" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="H53" s="10">
+      <c r="H53" s="7">
         <f>SUM(H36:H50)</f>
         <v>75.279999999999987</v>
       </c>
-      <c r="I53" s="11" t="s">
+      <c r="I53" s="8" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="54" spans="1:9" ht="17" thickTop="1" x14ac:dyDescent="0.2">
-      <c r="H54" s="16">
+      <c r="H54" s="12">
         <f>$H$8-H53</f>
-        <v>-11.97665499999998</v>
-      </c>
-      <c r="I54" s="17" t="s">
+        <v>30.225575000000006</v>
+      </c>
+      <c r="I54" s="13" t="s">
         <v>4</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="38">
-    <mergeCell ref="A48:B48"/>
-    <mergeCell ref="A49:B49"/>
-    <mergeCell ref="A50:B50"/>
-    <mergeCell ref="A42:B42"/>
-    <mergeCell ref="A43:B43"/>
-    <mergeCell ref="A44:B44"/>
-    <mergeCell ref="A45:B45"/>
-    <mergeCell ref="A46:B46"/>
-    <mergeCell ref="A47:B47"/>
-    <mergeCell ref="A36:B36"/>
-    <mergeCell ref="A37:B37"/>
-    <mergeCell ref="A38:B38"/>
-    <mergeCell ref="A39:B39"/>
-    <mergeCell ref="A40:B40"/>
+    <mergeCell ref="A19:B19"/>
+    <mergeCell ref="A17:B17"/>
+    <mergeCell ref="A14:B14"/>
+    <mergeCell ref="A15:B15"/>
+    <mergeCell ref="A2:B2"/>
+    <mergeCell ref="A4:B4"/>
+    <mergeCell ref="A5:B5"/>
+    <mergeCell ref="A6:B6"/>
     <mergeCell ref="A41:B41"/>
     <mergeCell ref="A16:B16"/>
     <mergeCell ref="A25:B25"/>
@@ -1597,14 +1591,20 @@
     <mergeCell ref="A24:B24"/>
     <mergeCell ref="A12:B12"/>
     <mergeCell ref="A18:B18"/>
-    <mergeCell ref="A19:B19"/>
-    <mergeCell ref="A17:B17"/>
-    <mergeCell ref="A14:B14"/>
-    <mergeCell ref="A15:B15"/>
-    <mergeCell ref="A2:B2"/>
-    <mergeCell ref="A4:B4"/>
-    <mergeCell ref="A5:B5"/>
-    <mergeCell ref="A6:B6"/>
+    <mergeCell ref="A36:B36"/>
+    <mergeCell ref="A37:B37"/>
+    <mergeCell ref="A38:B38"/>
+    <mergeCell ref="A39:B39"/>
+    <mergeCell ref="A40:B40"/>
+    <mergeCell ref="A48:B48"/>
+    <mergeCell ref="A49:B49"/>
+    <mergeCell ref="A50:B50"/>
+    <mergeCell ref="A42:B42"/>
+    <mergeCell ref="A43:B43"/>
+    <mergeCell ref="A44:B44"/>
+    <mergeCell ref="A45:B45"/>
+    <mergeCell ref="A46:B46"/>
+    <mergeCell ref="A47:B47"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/HVAC-Signal-Processing-Room/Heat-Load-Calculation.xlsx
+++ b/HVAC-Signal-Processing-Room/Heat-Load-Calculation.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11213"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10411"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/pollak/Documents/GitHub/Front-Page/HVAC-Signal-Processing-Room/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{24FA706A-1A0D-7949-8C7D-8FA2B7271FF3}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DD2419E2-8965-2344-AC3E-187510DD0804}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="61040" yWindow="460" windowWidth="24580" windowHeight="26040" xr2:uid="{D45A1780-0C9F-B74A-8B8A-CFC9344D9ADA}"/>
+    <workbookView xWindow="61040" yWindow="460" windowWidth="24580" windowHeight="21140" xr2:uid="{D45A1780-0C9F-B74A-8B8A-CFC9344D9ADA}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="136" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="140" uniqueCount="27">
   <si>
     <t>Existing cooling capacity</t>
   </si>
@@ -211,7 +211,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="19">
+  <cellXfs count="21">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -233,6 +233,9 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
@@ -242,9 +245,10 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -559,26 +563,26 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{06675C7E-7244-CA47-BE3B-A2B799861F4B}">
-  <dimension ref="A1:P54"/>
+  <dimension ref="A1:P55"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
-      <selection activeCell="F5" sqref="F5"/>
+      <selection activeCell="F30" sqref="F30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <sheetData>
     <row r="1" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A1" s="17" t="s">
+      <c r="A1" s="18" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="17"/>
-      <c r="C1" s="17"/>
-      <c r="D1" s="17"/>
-      <c r="E1" s="17"/>
-      <c r="F1" s="17"/>
-      <c r="G1" s="17"/>
-      <c r="H1" s="17"/>
-      <c r="I1" s="17"/>
+      <c r="B1" s="18"/>
+      <c r="C1" s="18"/>
+      <c r="D1" s="18"/>
+      <c r="E1" s="18"/>
+      <c r="F1" s="18"/>
+      <c r="G1" s="18"/>
+      <c r="H1" s="18"/>
+      <c r="I1" s="18"/>
       <c r="J1" s="9"/>
       <c r="K1" s="9"/>
       <c r="L1" s="9"/>
@@ -588,10 +592,10 @@
       <c r="P1" s="9"/>
     </row>
     <row r="2" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A2" s="18" t="s">
-        <v>1</v>
-      </c>
-      <c r="B2" s="18"/>
+      <c r="A2" s="15" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" s="15"/>
       <c r="J2" s="10"/>
       <c r="K2" s="10"/>
       <c r="L2" s="10"/>
@@ -617,14 +621,14 @@
       </c>
       <c r="B4" s="14"/>
       <c r="F4">
-        <v>22</v>
+        <v>0</v>
       </c>
       <c r="G4" t="s">
         <v>3</v>
       </c>
       <c r="H4" s="2">
         <f>F4*3.5168525</f>
-        <v>77.370755000000003</v>
+        <v>0</v>
       </c>
       <c r="I4" t="s">
         <v>4</v>
@@ -701,7 +705,7 @@
     <row r="8" spans="1:16" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="H8" s="3">
         <f>SUM(H4:H6)</f>
-        <v>105.50557499999999</v>
+        <v>28.134820000000001</v>
       </c>
       <c r="I8" s="4" t="s">
         <v>4</v>
@@ -733,17 +737,17 @@
       <c r="P10" s="10"/>
     </row>
     <row r="11" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A11" s="17" t="s">
+      <c r="A11" s="18" t="s">
         <v>7</v>
       </c>
-      <c r="B11" s="17"/>
-      <c r="C11" s="17"/>
-      <c r="D11" s="17"/>
-      <c r="E11" s="17"/>
-      <c r="F11" s="17"/>
-      <c r="G11" s="17"/>
-      <c r="H11" s="17"/>
-      <c r="I11" s="17"/>
+      <c r="B11" s="18"/>
+      <c r="C11" s="18"/>
+      <c r="D11" s="18"/>
+      <c r="E11" s="18"/>
+      <c r="F11" s="18"/>
+      <c r="G11" s="18"/>
+      <c r="H11" s="18"/>
+      <c r="I11" s="18"/>
       <c r="J11" s="9"/>
       <c r="K11" s="9"/>
       <c r="L11" s="9"/>
@@ -753,10 +757,10 @@
       <c r="P11" s="9"/>
     </row>
     <row r="12" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A12" s="18" t="s">
-        <v>1</v>
-      </c>
-      <c r="B12" s="18"/>
+      <c r="A12" s="15" t="s">
+        <v>1</v>
+      </c>
+      <c r="B12" s="15"/>
     </row>
     <row r="13" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A13" s="6"/>
@@ -780,7 +784,7 @@
         <v>10</v>
       </c>
       <c r="H14">
-        <f t="shared" ref="H14:H27" si="1">D14*F14/1000</f>
+        <f t="shared" ref="H14:H28" si="1">D14*F14/1000</f>
         <v>1.5</v>
       </c>
       <c r="I14" t="s">
@@ -813,10 +817,10 @@
       </c>
     </row>
     <row r="16" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A16" s="16" t="s">
+      <c r="A16" s="17" t="s">
         <v>22</v>
       </c>
-      <c r="B16" s="16"/>
+      <c r="B16" s="17"/>
       <c r="C16" s="1"/>
       <c r="D16" s="1">
         <v>1</v>
@@ -894,7 +898,7 @@
       </c>
       <c r="B19" s="14"/>
       <c r="D19">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="E19" t="s">
         <v>9</v>
@@ -907,7 +911,7 @@
       </c>
       <c r="H19">
         <f t="shared" si="1"/>
-        <v>5.2</v>
+        <v>10.4</v>
       </c>
       <c r="I19" t="s">
         <v>4</v>
@@ -1039,10 +1043,10 @@
       </c>
     </row>
     <row r="25" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A25" s="16" t="s">
+      <c r="A25" s="17" t="s">
         <v>24</v>
       </c>
-      <c r="B25" s="16"/>
+      <c r="B25" s="17"/>
       <c r="C25" s="1"/>
       <c r="D25" s="1">
         <v>1</v>
@@ -1095,7 +1099,7 @@
       </c>
       <c r="B27" s="14"/>
       <c r="D27">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="E27" t="s">
         <v>9</v>
@@ -1108,89 +1112,90 @@
       </c>
       <c r="H27">
         <f t="shared" si="1"/>
-        <v>0.05</v>
+        <v>0.2</v>
       </c>
       <c r="I27" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="29" spans="1:9" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="H29" s="7">
-        <f>SUM(H14:H27)</f>
-        <v>19.750000000000004</v>
-      </c>
-      <c r="I29" s="8" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="30" spans="1:9" ht="17" thickTop="1" x14ac:dyDescent="0.2">
-      <c r="H30" s="12">
-        <f>$H$8-H29</f>
-        <v>85.755574999999993</v>
-      </c>
-      <c r="I30" s="13" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="31" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A31" s="5"/>
-      <c r="B31" s="5"/>
+    <row r="28" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A28" s="19" t="s">
+        <v>26</v>
+      </c>
+      <c r="B28" s="19"/>
+      <c r="C28" s="20"/>
+      <c r="D28" s="20">
+        <v>3</v>
+      </c>
+      <c r="E28" s="20" t="s">
+        <v>9</v>
+      </c>
+      <c r="F28" s="20">
+        <v>180</v>
+      </c>
+      <c r="G28" s="20" t="s">
+        <v>10</v>
+      </c>
+      <c r="H28" s="20">
+        <f t="shared" si="1"/>
+        <v>0.54</v>
+      </c>
+      <c r="I28" s="20" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="30" spans="1:9" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="H30" s="7">
+        <f>SUM(H14:H28)</f>
+        <v>25.64</v>
+      </c>
+      <c r="I30" s="8" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="31" spans="1:9" ht="17" thickTop="1" x14ac:dyDescent="0.2">
+      <c r="H31" s="12">
+        <f>$H$8-H30</f>
+        <v>2.4948200000000007</v>
+      </c>
+      <c r="I31" s="13" t="s">
+        <v>4</v>
+      </c>
     </row>
     <row r="32" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A32" s="5"/>
       <c r="B32" s="5"/>
     </row>
     <row r="33" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A33" s="17" t="s">
-        <v>25</v>
-      </c>
-      <c r="B33" s="17"/>
-      <c r="C33" s="17"/>
-      <c r="D33" s="17"/>
-      <c r="E33" s="17"/>
-      <c r="F33" s="17"/>
-      <c r="G33" s="17"/>
-      <c r="H33" s="17"/>
-      <c r="I33" s="17"/>
+      <c r="A33" s="5"/>
+      <c r="B33" s="5"/>
     </row>
     <row r="34" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A34" s="18" t="s">
-        <v>1</v>
+        <v>25</v>
       </c>
       <c r="B34" s="18"/>
+      <c r="C34" s="18"/>
+      <c r="D34" s="18"/>
+      <c r="E34" s="18"/>
+      <c r="F34" s="18"/>
+      <c r="G34" s="18"/>
+      <c r="H34" s="18"/>
+      <c r="I34" s="18"/>
     </row>
     <row r="35" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A35" s="6"/>
-      <c r="B35" s="6"/>
+      <c r="A35" s="15" t="s">
+        <v>1</v>
+      </c>
+      <c r="B35" s="15"/>
     </row>
     <row r="36" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A36" s="14" t="s">
-        <v>13</v>
-      </c>
-      <c r="B36" s="14"/>
-      <c r="D36">
-        <v>1</v>
-      </c>
-      <c r="E36" t="s">
-        <v>23</v>
-      </c>
-      <c r="F36">
-        <v>1500</v>
-      </c>
-      <c r="G36" t="s">
-        <v>10</v>
-      </c>
-      <c r="H36">
-        <f t="shared" ref="H36:H50" si="2">D36*F36/1000</f>
-        <v>1.5</v>
-      </c>
-      <c r="I36" t="s">
-        <v>4</v>
-      </c>
+      <c r="A36" s="6"/>
+      <c r="B36" s="6"/>
     </row>
     <row r="37" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A37" s="14" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B37" s="14"/>
       <c r="D37">
@@ -1200,388 +1205,420 @@
         <v>23</v>
       </c>
       <c r="F37">
+        <v>1500</v>
+      </c>
+      <c r="G37" t="s">
+        <v>10</v>
+      </c>
+      <c r="H37">
+        <f t="shared" ref="H37:H51" si="2">D37*F37/1000</f>
+        <v>1.5</v>
+      </c>
+      <c r="I37" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="38" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A38" s="14" t="s">
+        <v>14</v>
+      </c>
+      <c r="B38" s="14"/>
+      <c r="D38">
+        <v>1</v>
+      </c>
+      <c r="E38" t="s">
+        <v>23</v>
+      </c>
+      <c r="F38">
         <v>2000</v>
       </c>
-      <c r="G37" t="s">
-        <v>10</v>
-      </c>
-      <c r="H37">
+      <c r="G38" t="s">
+        <v>10</v>
+      </c>
+      <c r="H38">
         <f t="shared" si="2"/>
         <v>2</v>
       </c>
-      <c r="I37" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="38" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A38" s="16" t="s">
+      <c r="I38" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="39" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A39" s="17" t="s">
         <v>22</v>
       </c>
-      <c r="B38" s="16"/>
-      <c r="C38" s="1"/>
-      <c r="D38" s="1">
-        <v>1</v>
-      </c>
-      <c r="E38" s="1" t="s">
+      <c r="B39" s="17"/>
+      <c r="C39" s="1"/>
+      <c r="D39" s="1">
+        <v>1</v>
+      </c>
+      <c r="E39" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="F38" s="1">
+      <c r="F39" s="1">
         <v>1500</v>
       </c>
-      <c r="G38" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="H38" s="1">
+      <c r="G39" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="H39" s="1">
         <f t="shared" si="2"/>
         <v>1.5</v>
       </c>
-      <c r="I38" s="1" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="39" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A39" s="14" t="s">
+      <c r="I39" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="40" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A40" s="14" t="s">
         <v>12</v>
       </c>
-      <c r="B39" s="14"/>
-      <c r="D39">
-        <v>1</v>
-      </c>
-      <c r="E39" t="s">
-        <v>9</v>
-      </c>
-      <c r="F39">
+      <c r="B40" s="14"/>
+      <c r="D40">
+        <v>1</v>
+      </c>
+      <c r="E40" t="s">
+        <v>9</v>
+      </c>
+      <c r="F40">
         <v>500</v>
       </c>
-      <c r="G39" t="s">
-        <v>10</v>
-      </c>
-      <c r="H39">
+      <c r="G40" t="s">
+        <v>10</v>
+      </c>
+      <c r="H40">
         <f t="shared" si="2"/>
         <v>0.5</v>
       </c>
-      <c r="I39" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="40" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A40" s="14" t="s">
+      <c r="I40" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="41" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A41" s="14" t="s">
         <v>8</v>
       </c>
-      <c r="B40" s="14"/>
-      <c r="D40">
+      <c r="B41" s="14"/>
+      <c r="D41">
         <v>6</v>
       </c>
-      <c r="E40" t="s">
-        <v>9</v>
-      </c>
-      <c r="F40">
+      <c r="E41" t="s">
+        <v>9</v>
+      </c>
+      <c r="F41">
         <v>600</v>
       </c>
-      <c r="G40" t="s">
-        <v>10</v>
-      </c>
-      <c r="H40">
+      <c r="G41" t="s">
+        <v>10</v>
+      </c>
+      <c r="H41">
         <f t="shared" si="2"/>
         <v>3.6</v>
       </c>
-      <c r="I40" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="41" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A41" s="15" t="s">
+      <c r="I41" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="42" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A42" s="16" t="s">
         <v>11</v>
       </c>
-      <c r="B41" s="15"/>
-      <c r="C41" s="11"/>
-      <c r="D41" s="11">
+      <c r="B42" s="16"/>
+      <c r="C42" s="11"/>
+      <c r="D42" s="11">
         <v>43</v>
       </c>
-      <c r="E41" s="11" t="s">
-        <v>9</v>
-      </c>
-      <c r="F41" s="11">
+      <c r="E42" s="11" t="s">
+        <v>9</v>
+      </c>
+      <c r="F42" s="11">
         <v>1300</v>
       </c>
-      <c r="G41" s="11" t="s">
-        <v>10</v>
-      </c>
-      <c r="H41" s="11">
+      <c r="G42" s="11" t="s">
+        <v>10</v>
+      </c>
+      <c r="H42" s="11">
         <f t="shared" si="2"/>
         <v>55.9</v>
       </c>
-      <c r="I41" s="11" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="42" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A42" s="14" t="s">
+      <c r="I42" s="11" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="43" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A43" s="14" t="s">
         <v>18</v>
       </c>
-      <c r="B42" s="14"/>
-      <c r="D42">
-        <v>1</v>
-      </c>
-      <c r="E42" t="s">
-        <v>9</v>
-      </c>
-      <c r="F42">
+      <c r="B43" s="14"/>
+      <c r="D43">
+        <v>1</v>
+      </c>
+      <c r="E43" t="s">
+        <v>9</v>
+      </c>
+      <c r="F43">
         <v>500</v>
       </c>
-      <c r="G42" t="s">
-        <v>10</v>
-      </c>
-      <c r="H42">
+      <c r="G43" t="s">
+        <v>10</v>
+      </c>
+      <c r="H43">
         <f t="shared" si="2"/>
         <v>0.5</v>
       </c>
-      <c r="I42" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="43" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A43" s="14" t="s">
+      <c r="I43" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="44" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A44" s="14" t="s">
         <v>17</v>
       </c>
-      <c r="B43" s="14"/>
-      <c r="D43">
-        <v>1</v>
-      </c>
-      <c r="E43" t="s">
-        <v>9</v>
-      </c>
-      <c r="F43">
+      <c r="B44" s="14"/>
+      <c r="D44">
+        <v>1</v>
+      </c>
+      <c r="E44" t="s">
+        <v>9</v>
+      </c>
+      <c r="F44">
         <v>600</v>
       </c>
-      <c r="G43" t="s">
-        <v>10</v>
-      </c>
-      <c r="H43">
+      <c r="G44" t="s">
+        <v>10</v>
+      </c>
+      <c r="H44">
         <f t="shared" si="2"/>
         <v>0.6</v>
       </c>
-      <c r="I43" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="44" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A44" s="14" t="s">
+      <c r="I44" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="45" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A45" s="14" t="s">
         <v>19</v>
       </c>
-      <c r="B44" s="14"/>
-      <c r="D44">
+      <c r="B45" s="14"/>
+      <c r="D45">
         <v>2</v>
       </c>
-      <c r="E44" t="s">
-        <v>9</v>
-      </c>
-      <c r="F44">
+      <c r="E45" t="s">
+        <v>9</v>
+      </c>
+      <c r="F45">
         <v>600</v>
       </c>
-      <c r="G44" t="s">
-        <v>10</v>
-      </c>
-      <c r="H44">
+      <c r="G45" t="s">
+        <v>10</v>
+      </c>
+      <c r="H45">
         <f t="shared" si="2"/>
         <v>1.2</v>
       </c>
-      <c r="I44" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="45" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A45" s="14" t="s">
+      <c r="I45" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="46" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A46" s="14" t="s">
         <v>20</v>
       </c>
-      <c r="B45" s="14"/>
-      <c r="D45">
-        <v>1</v>
-      </c>
-      <c r="E45" t="s">
-        <v>9</v>
-      </c>
-      <c r="F45">
+      <c r="B46" s="14"/>
+      <c r="D46">
+        <v>1</v>
+      </c>
+      <c r="E46" t="s">
+        <v>9</v>
+      </c>
+      <c r="F46">
         <v>500</v>
       </c>
-      <c r="G45" t="s">
-        <v>10</v>
-      </c>
-      <c r="H45">
+      <c r="G46" t="s">
+        <v>10</v>
+      </c>
+      <c r="H46">
         <f t="shared" si="2"/>
         <v>0.5</v>
       </c>
-      <c r="I45" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="46" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A46" s="14" t="s">
+      <c r="I46" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="47" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A47" s="14" t="s">
         <v>21</v>
       </c>
-      <c r="B46" s="14"/>
-      <c r="D46">
-        <v>4</v>
-      </c>
-      <c r="E46" t="s">
-        <v>9</v>
-      </c>
-      <c r="F46">
+      <c r="B47" s="14"/>
+      <c r="D47">
+        <v>4</v>
+      </c>
+      <c r="E47" t="s">
+        <v>9</v>
+      </c>
+      <c r="F47">
         <v>250</v>
       </c>
-      <c r="G46" t="s">
-        <v>10</v>
-      </c>
-      <c r="H46">
+      <c r="G47" t="s">
+        <v>10</v>
+      </c>
+      <c r="H47">
         <f t="shared" si="2"/>
         <v>1</v>
       </c>
-      <c r="I46" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="47" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A47" s="16" t="s">
+      <c r="I47" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="48" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A48" s="17" t="s">
         <v>24</v>
       </c>
-      <c r="B47" s="16"/>
-      <c r="C47" s="1"/>
-      <c r="D47" s="1">
-        <v>1</v>
-      </c>
-      <c r="E47" s="1" t="s">
+      <c r="B48" s="17"/>
+      <c r="C48" s="1"/>
+      <c r="D48" s="1">
+        <v>1</v>
+      </c>
+      <c r="E48" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="F47" s="1">
+      <c r="F48" s="1">
         <v>1000</v>
       </c>
-      <c r="G47" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="H47" s="1">
+      <c r="G48" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="H48" s="1">
         <f t="shared" si="2"/>
         <v>1</v>
       </c>
-      <c r="I47" s="1" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="48" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A48" s="14" t="s">
+      <c r="I48" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="49" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A49" s="14" t="s">
         <v>15</v>
       </c>
-      <c r="B48" s="14"/>
-      <c r="D48">
+      <c r="B49" s="14"/>
+      <c r="D49">
         <v>12</v>
       </c>
-      <c r="E48" t="s">
-        <v>9</v>
-      </c>
-      <c r="F48">
+      <c r="E49" t="s">
+        <v>9</v>
+      </c>
+      <c r="F49">
         <v>50</v>
       </c>
-      <c r="G48" t="s">
-        <v>10</v>
-      </c>
-      <c r="H48">
+      <c r="G49" t="s">
+        <v>10</v>
+      </c>
+      <c r="H49">
         <f t="shared" si="2"/>
         <v>0.6</v>
       </c>
-      <c r="I48" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="49" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A49" s="15" t="s">
+      <c r="I49" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="50" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A50" s="16" t="s">
         <v>16</v>
       </c>
-      <c r="B49" s="15"/>
-      <c r="C49" s="11"/>
-      <c r="D49" s="11">
+      <c r="B50" s="16"/>
+      <c r="C50" s="11"/>
+      <c r="D50" s="11">
         <v>22</v>
       </c>
-      <c r="E49" s="11" t="s">
-        <v>9</v>
-      </c>
-      <c r="F49" s="11">
+      <c r="E50" s="11" t="s">
+        <v>9</v>
+      </c>
+      <c r="F50" s="11">
         <v>50</v>
       </c>
-      <c r="G49" s="11" t="s">
-        <v>10</v>
-      </c>
-      <c r="H49" s="11">
+      <c r="G50" s="11" t="s">
+        <v>10</v>
+      </c>
+      <c r="H50" s="11">
         <f t="shared" si="2"/>
         <v>1.1000000000000001</v>
       </c>
-      <c r="I49" s="11" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="50" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A50" s="15" t="s">
+      <c r="I50" s="11" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="51" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A51" s="16" t="s">
         <v>26</v>
       </c>
-      <c r="B50" s="15"/>
-      <c r="C50" s="11"/>
-      <c r="D50" s="11">
+      <c r="B51" s="16"/>
+      <c r="C51" s="11"/>
+      <c r="D51" s="11">
         <v>21</v>
       </c>
-      <c r="E50" s="11" t="s">
-        <v>9</v>
-      </c>
-      <c r="F50" s="11">
+      <c r="E51" s="11" t="s">
+        <v>9</v>
+      </c>
+      <c r="F51" s="11">
         <v>180</v>
       </c>
-      <c r="G50" s="11" t="s">
-        <v>10</v>
-      </c>
-      <c r="H50" s="11">
+      <c r="G51" s="11" t="s">
+        <v>10</v>
+      </c>
+      <c r="H51" s="11">
         <f t="shared" si="2"/>
         <v>3.78</v>
       </c>
-      <c r="I50" s="11" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="51" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A51" s="5"/>
-      <c r="B51" s="5"/>
-    </row>
-    <row r="53" spans="1:9" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="H53" s="7">
-        <f>SUM(H36:H50)</f>
+      <c r="I51" s="11" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="52" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A52" s="5"/>
+      <c r="B52" s="5"/>
+    </row>
+    <row r="54" spans="1:9" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="H54" s="7">
+        <f>SUM(H37:H51)</f>
         <v>75.279999999999987</v>
       </c>
-      <c r="I53" s="8" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="54" spans="1:9" ht="17" thickTop="1" x14ac:dyDescent="0.2">
-      <c r="H54" s="12">
-        <f>$H$8-H53</f>
-        <v>30.225575000000006</v>
-      </c>
-      <c r="I54" s="13" t="s">
+      <c r="I54" s="8" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="55" spans="1:9" ht="17" thickTop="1" x14ac:dyDescent="0.2">
+      <c r="H55" s="12">
+        <f>$H$8-H54</f>
+        <v>-47.145179999999982</v>
+      </c>
+      <c r="I55" s="13" t="s">
         <v>4</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="38">
-    <mergeCell ref="A19:B19"/>
-    <mergeCell ref="A17:B17"/>
-    <mergeCell ref="A14:B14"/>
-    <mergeCell ref="A15:B15"/>
-    <mergeCell ref="A2:B2"/>
-    <mergeCell ref="A4:B4"/>
-    <mergeCell ref="A5:B5"/>
-    <mergeCell ref="A6:B6"/>
+  <mergeCells count="39">
+    <mergeCell ref="A28:B28"/>
+    <mergeCell ref="A49:B49"/>
+    <mergeCell ref="A50:B50"/>
+    <mergeCell ref="A51:B51"/>
+    <mergeCell ref="A43:B43"/>
+    <mergeCell ref="A44:B44"/>
+    <mergeCell ref="A45:B45"/>
+    <mergeCell ref="A46:B46"/>
+    <mergeCell ref="A47:B47"/>
+    <mergeCell ref="A48:B48"/>
+    <mergeCell ref="A37:B37"/>
+    <mergeCell ref="A38:B38"/>
+    <mergeCell ref="A39:B39"/>
+    <mergeCell ref="A40:B40"/>
     <mergeCell ref="A41:B41"/>
+    <mergeCell ref="A42:B42"/>
     <mergeCell ref="A16:B16"/>
     <mergeCell ref="A25:B25"/>
     <mergeCell ref="A1:I1"/>
     <mergeCell ref="A11:I11"/>
-    <mergeCell ref="A33:I33"/>
-    <mergeCell ref="A34:B34"/>
+    <mergeCell ref="A34:I34"/>
+    <mergeCell ref="A35:B35"/>
     <mergeCell ref="A27:B27"/>
     <mergeCell ref="A26:B26"/>
     <mergeCell ref="A20:B20"/>
@@ -1591,20 +1628,14 @@
     <mergeCell ref="A24:B24"/>
     <mergeCell ref="A12:B12"/>
     <mergeCell ref="A18:B18"/>
-    <mergeCell ref="A36:B36"/>
-    <mergeCell ref="A37:B37"/>
-    <mergeCell ref="A38:B38"/>
-    <mergeCell ref="A39:B39"/>
-    <mergeCell ref="A40:B40"/>
-    <mergeCell ref="A48:B48"/>
-    <mergeCell ref="A49:B49"/>
-    <mergeCell ref="A50:B50"/>
-    <mergeCell ref="A42:B42"/>
-    <mergeCell ref="A43:B43"/>
-    <mergeCell ref="A44:B44"/>
-    <mergeCell ref="A45:B45"/>
-    <mergeCell ref="A46:B46"/>
-    <mergeCell ref="A47:B47"/>
+    <mergeCell ref="A19:B19"/>
+    <mergeCell ref="A17:B17"/>
+    <mergeCell ref="A14:B14"/>
+    <mergeCell ref="A15:B15"/>
+    <mergeCell ref="A2:B2"/>
+    <mergeCell ref="A4:B4"/>
+    <mergeCell ref="A5:B5"/>
+    <mergeCell ref="A6:B6"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/HVAC-Signal-Processing-Room/Heat-Load-Calculation.xlsx
+++ b/HVAC-Signal-Processing-Room/Heat-Load-Calculation.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10411"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10808"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/pollak/Documents/GitHub/Front-Page/HVAC-Signal-Processing-Room/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DD2419E2-8965-2344-AC3E-187510DD0804}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{44871A1E-9042-8E4A-9729-1BC5703A3301}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="61040" yWindow="460" windowWidth="24580" windowHeight="21140" xr2:uid="{D45A1780-0C9F-B74A-8B8A-CFC9344D9ADA}"/>
+    <workbookView xWindow="5440" yWindow="460" windowWidth="24580" windowHeight="19700" xr2:uid="{D45A1780-0C9F-B74A-8B8A-CFC9344D9ADA}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -230,10 +230,11 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="2" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -245,10 +246,9 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -565,24 +565,24 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{06675C7E-7244-CA47-BE3B-A2B799861F4B}">
   <dimension ref="A1:P55"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
-      <selection activeCell="F30" sqref="F30"/>
+    <sheetView tabSelected="1" topLeftCell="A30" zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
+      <selection activeCell="F9" sqref="F9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <sheetData>
     <row r="1" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A1" s="18" t="s">
+      <c r="A1" s="19" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="18"/>
-      <c r="C1" s="18"/>
-      <c r="D1" s="18"/>
-      <c r="E1" s="18"/>
-      <c r="F1" s="18"/>
-      <c r="G1" s="18"/>
-      <c r="H1" s="18"/>
-      <c r="I1" s="18"/>
+      <c r="B1" s="19"/>
+      <c r="C1" s="19"/>
+      <c r="D1" s="19"/>
+      <c r="E1" s="19"/>
+      <c r="F1" s="19"/>
+      <c r="G1" s="19"/>
+      <c r="H1" s="19"/>
+      <c r="I1" s="19"/>
       <c r="J1" s="9"/>
       <c r="K1" s="9"/>
       <c r="L1" s="9"/>
@@ -592,10 +592,10 @@
       <c r="P1" s="9"/>
     </row>
     <row r="2" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A2" s="15" t="s">
-        <v>1</v>
-      </c>
-      <c r="B2" s="15"/>
+      <c r="A2" s="20" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" s="20"/>
       <c r="J2" s="10"/>
       <c r="K2" s="10"/>
       <c r="L2" s="10"/>
@@ -616,19 +616,19 @@
       <c r="P3" s="10"/>
     </row>
     <row r="4" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A4" s="14" t="s">
+      <c r="A4" s="16" t="s">
         <v>2</v>
       </c>
-      <c r="B4" s="14"/>
+      <c r="B4" s="16"/>
       <c r="F4">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="G4" t="s">
         <v>3</v>
       </c>
       <c r="H4" s="2">
         <f>F4*3.5168525</f>
-        <v>0</v>
+        <v>70.337050000000005</v>
       </c>
       <c r="I4" t="s">
         <v>4</v>
@@ -642,10 +642,10 @@
       <c r="P4" s="10"/>
     </row>
     <row r="5" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A5" s="14" t="s">
+      <c r="A5" s="16" t="s">
         <v>5</v>
       </c>
-      <c r="B5" s="14"/>
+      <c r="B5" s="16"/>
       <c r="F5">
         <v>4</v>
       </c>
@@ -668,10 +668,10 @@
       <c r="P5" s="10"/>
     </row>
     <row r="6" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A6" s="14" t="s">
+      <c r="A6" s="16" t="s">
         <v>6</v>
       </c>
-      <c r="B6" s="14"/>
+      <c r="B6" s="16"/>
       <c r="F6">
         <v>4</v>
       </c>
@@ -705,7 +705,7 @@
     <row r="8" spans="1:16" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="H8" s="3">
         <f>SUM(H4:H6)</f>
-        <v>28.134820000000001</v>
+        <v>98.471869999999996</v>
       </c>
       <c r="I8" s="4" t="s">
         <v>4</v>
@@ -737,17 +737,17 @@
       <c r="P10" s="10"/>
     </row>
     <row r="11" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A11" s="18" t="s">
+      <c r="A11" s="19" t="s">
         <v>7</v>
       </c>
-      <c r="B11" s="18"/>
-      <c r="C11" s="18"/>
-      <c r="D11" s="18"/>
-      <c r="E11" s="18"/>
-      <c r="F11" s="18"/>
-      <c r="G11" s="18"/>
-      <c r="H11" s="18"/>
-      <c r="I11" s="18"/>
+      <c r="B11" s="19"/>
+      <c r="C11" s="19"/>
+      <c r="D11" s="19"/>
+      <c r="E11" s="19"/>
+      <c r="F11" s="19"/>
+      <c r="G11" s="19"/>
+      <c r="H11" s="19"/>
+      <c r="I11" s="19"/>
       <c r="J11" s="9"/>
       <c r="K11" s="9"/>
       <c r="L11" s="9"/>
@@ -757,20 +757,20 @@
       <c r="P11" s="9"/>
     </row>
     <row r="12" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A12" s="15" t="s">
-        <v>1</v>
-      </c>
-      <c r="B12" s="15"/>
+      <c r="A12" s="20" t="s">
+        <v>1</v>
+      </c>
+      <c r="B12" s="20"/>
     </row>
     <row r="13" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A13" s="6"/>
       <c r="B13" s="6"/>
     </row>
     <row r="14" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A14" s="14" t="s">
+      <c r="A14" s="16" t="s">
         <v>13</v>
       </c>
-      <c r="B14" s="14"/>
+      <c r="B14" s="16"/>
       <c r="D14">
         <v>1</v>
       </c>
@@ -792,10 +792,10 @@
       </c>
     </row>
     <row r="15" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A15" s="14" t="s">
+      <c r="A15" s="16" t="s">
         <v>14</v>
       </c>
-      <c r="B15" s="14"/>
+      <c r="B15" s="16"/>
       <c r="D15">
         <v>1</v>
       </c>
@@ -817,10 +817,10 @@
       </c>
     </row>
     <row r="16" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A16" s="17" t="s">
+      <c r="A16" s="18" t="s">
         <v>22</v>
       </c>
-      <c r="B16" s="17"/>
+      <c r="B16" s="18"/>
       <c r="C16" s="1"/>
       <c r="D16" s="1">
         <v>1</v>
@@ -843,10 +843,10 @@
       </c>
     </row>
     <row r="17" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A17" s="14" t="s">
+      <c r="A17" s="16" t="s">
         <v>12</v>
       </c>
-      <c r="B17" s="14"/>
+      <c r="B17" s="16"/>
       <c r="D17">
         <v>1</v>
       </c>
@@ -868,10 +868,10 @@
       </c>
     </row>
     <row r="18" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A18" s="14" t="s">
+      <c r="A18" s="16" t="s">
         <v>8</v>
       </c>
-      <c r="B18" s="14"/>
+      <c r="B18" s="16"/>
       <c r="D18">
         <v>6</v>
       </c>
@@ -893,10 +893,10 @@
       </c>
     </row>
     <row r="19" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A19" s="14" t="s">
+      <c r="A19" s="16" t="s">
         <v>11</v>
       </c>
-      <c r="B19" s="14"/>
+      <c r="B19" s="16"/>
       <c r="D19">
         <v>8</v>
       </c>
@@ -918,10 +918,10 @@
       </c>
     </row>
     <row r="20" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A20" s="14" t="s">
+      <c r="A20" s="16" t="s">
         <v>18</v>
       </c>
-      <c r="B20" s="14"/>
+      <c r="B20" s="16"/>
       <c r="D20">
         <v>1</v>
       </c>
@@ -943,10 +943,10 @@
       </c>
     </row>
     <row r="21" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A21" s="14" t="s">
+      <c r="A21" s="16" t="s">
         <v>17</v>
       </c>
-      <c r="B21" s="14"/>
+      <c r="B21" s="16"/>
       <c r="D21">
         <v>1</v>
       </c>
@@ -968,10 +968,10 @@
       </c>
     </row>
     <row r="22" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A22" s="14" t="s">
+      <c r="A22" s="16" t="s">
         <v>19</v>
       </c>
-      <c r="B22" s="14"/>
+      <c r="B22" s="16"/>
       <c r="D22">
         <v>2</v>
       </c>
@@ -993,10 +993,10 @@
       </c>
     </row>
     <row r="23" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A23" s="14" t="s">
+      <c r="A23" s="16" t="s">
         <v>20</v>
       </c>
-      <c r="B23" s="14"/>
+      <c r="B23" s="16"/>
       <c r="D23">
         <v>1</v>
       </c>
@@ -1018,10 +1018,10 @@
       </c>
     </row>
     <row r="24" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A24" s="14" t="s">
+      <c r="A24" s="16" t="s">
         <v>21</v>
       </c>
-      <c r="B24" s="14"/>
+      <c r="B24" s="16"/>
       <c r="D24">
         <v>4</v>
       </c>
@@ -1043,10 +1043,10 @@
       </c>
     </row>
     <row r="25" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A25" s="17" t="s">
+      <c r="A25" s="18" t="s">
         <v>24</v>
       </c>
-      <c r="B25" s="17"/>
+      <c r="B25" s="18"/>
       <c r="C25" s="1"/>
       <c r="D25" s="1">
         <v>1</v>
@@ -1069,10 +1069,10 @@
       </c>
     </row>
     <row r="26" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A26" s="14" t="s">
+      <c r="A26" s="16" t="s">
         <v>15</v>
       </c>
-      <c r="B26" s="14"/>
+      <c r="B26" s="16"/>
       <c r="D26">
         <v>12</v>
       </c>
@@ -1094,12 +1094,12 @@
       </c>
     </row>
     <row r="27" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A27" s="14" t="s">
+      <c r="A27" s="16" t="s">
         <v>16</v>
       </c>
-      <c r="B27" s="14"/>
+      <c r="B27" s="16"/>
       <c r="D27">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="E27" t="s">
         <v>9</v>
@@ -1112,42 +1112,42 @@
       </c>
       <c r="H27">
         <f t="shared" si="1"/>
-        <v>0.2</v>
+        <v>0.25</v>
       </c>
       <c r="I27" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="28" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A28" s="19" t="s">
+      <c r="A28" s="15" t="s">
         <v>26</v>
       </c>
-      <c r="B28" s="19"/>
-      <c r="C28" s="20"/>
-      <c r="D28" s="20">
-        <v>3</v>
-      </c>
-      <c r="E28" s="20" t="s">
-        <v>9</v>
-      </c>
-      <c r="F28" s="20">
-        <v>180</v>
-      </c>
-      <c r="G28" s="20" t="s">
-        <v>10</v>
-      </c>
-      <c r="H28" s="20">
+      <c r="B28" s="15"/>
+      <c r="C28" s="14"/>
+      <c r="D28" s="14">
+        <v>5</v>
+      </c>
+      <c r="E28" s="14" t="s">
+        <v>9</v>
+      </c>
+      <c r="F28" s="14">
+        <v>100</v>
+      </c>
+      <c r="G28" s="14" t="s">
+        <v>10</v>
+      </c>
+      <c r="H28" s="14">
         <f t="shared" si="1"/>
-        <v>0.54</v>
-      </c>
-      <c r="I28" s="20" t="s">
+        <v>0.5</v>
+      </c>
+      <c r="I28" s="14" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="30" spans="1:9" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="H30" s="7">
         <f>SUM(H14:H28)</f>
-        <v>25.64</v>
+        <v>25.650000000000002</v>
       </c>
       <c r="I30" s="8" t="s">
         <v>4</v>
@@ -1156,7 +1156,7 @@
     <row r="31" spans="1:9" ht="17" thickTop="1" x14ac:dyDescent="0.2">
       <c r="H31" s="12">
         <f>$H$8-H30</f>
-        <v>2.4948200000000007</v>
+        <v>72.82186999999999</v>
       </c>
       <c r="I31" s="13" t="s">
         <v>4</v>
@@ -1171,33 +1171,33 @@
       <c r="B33" s="5"/>
     </row>
     <row r="34" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A34" s="18" t="s">
+      <c r="A34" s="19" t="s">
         <v>25</v>
       </c>
-      <c r="B34" s="18"/>
-      <c r="C34" s="18"/>
-      <c r="D34" s="18"/>
-      <c r="E34" s="18"/>
-      <c r="F34" s="18"/>
-      <c r="G34" s="18"/>
-      <c r="H34" s="18"/>
-      <c r="I34" s="18"/>
+      <c r="B34" s="19"/>
+      <c r="C34" s="19"/>
+      <c r="D34" s="19"/>
+      <c r="E34" s="19"/>
+      <c r="F34" s="19"/>
+      <c r="G34" s="19"/>
+      <c r="H34" s="19"/>
+      <c r="I34" s="19"/>
     </row>
     <row r="35" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A35" s="15" t="s">
-        <v>1</v>
-      </c>
-      <c r="B35" s="15"/>
+      <c r="A35" s="20" t="s">
+        <v>1</v>
+      </c>
+      <c r="B35" s="20"/>
     </row>
     <row r="36" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A36" s="6"/>
       <c r="B36" s="6"/>
     </row>
     <row r="37" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A37" s="14" t="s">
+      <c r="A37" s="16" t="s">
         <v>13</v>
       </c>
-      <c r="B37" s="14"/>
+      <c r="B37" s="16"/>
       <c r="D37">
         <v>1</v>
       </c>
@@ -1219,10 +1219,10 @@
       </c>
     </row>
     <row r="38" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A38" s="14" t="s">
+      <c r="A38" s="16" t="s">
         <v>14</v>
       </c>
-      <c r="B38" s="14"/>
+      <c r="B38" s="16"/>
       <c r="D38">
         <v>1</v>
       </c>
@@ -1244,10 +1244,10 @@
       </c>
     </row>
     <row r="39" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A39" s="17" t="s">
+      <c r="A39" s="18" t="s">
         <v>22</v>
       </c>
-      <c r="B39" s="17"/>
+      <c r="B39" s="18"/>
       <c r="C39" s="1"/>
       <c r="D39" s="1">
         <v>1</v>
@@ -1270,10 +1270,10 @@
       </c>
     </row>
     <row r="40" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A40" s="14" t="s">
+      <c r="A40" s="16" t="s">
         <v>12</v>
       </c>
-      <c r="B40" s="14"/>
+      <c r="B40" s="16"/>
       <c r="D40">
         <v>1</v>
       </c>
@@ -1295,10 +1295,10 @@
       </c>
     </row>
     <row r="41" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A41" s="14" t="s">
+      <c r="A41" s="16" t="s">
         <v>8</v>
       </c>
-      <c r="B41" s="14"/>
+      <c r="B41" s="16"/>
       <c r="D41">
         <v>6</v>
       </c>
@@ -1320,10 +1320,10 @@
       </c>
     </row>
     <row r="42" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A42" s="16" t="s">
+      <c r="A42" s="17" t="s">
         <v>11</v>
       </c>
-      <c r="B42" s="16"/>
+      <c r="B42" s="17"/>
       <c r="C42" s="11"/>
       <c r="D42" s="11">
         <v>43</v>
@@ -1346,10 +1346,10 @@
       </c>
     </row>
     <row r="43" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A43" s="14" t="s">
+      <c r="A43" s="16" t="s">
         <v>18</v>
       </c>
-      <c r="B43" s="14"/>
+      <c r="B43" s="16"/>
       <c r="D43">
         <v>1</v>
       </c>
@@ -1371,10 +1371,10 @@
       </c>
     </row>
     <row r="44" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A44" s="14" t="s">
+      <c r="A44" s="16" t="s">
         <v>17</v>
       </c>
-      <c r="B44" s="14"/>
+      <c r="B44" s="16"/>
       <c r="D44">
         <v>1</v>
       </c>
@@ -1396,10 +1396,10 @@
       </c>
     </row>
     <row r="45" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A45" s="14" t="s">
+      <c r="A45" s="16" t="s">
         <v>19</v>
       </c>
-      <c r="B45" s="14"/>
+      <c r="B45" s="16"/>
       <c r="D45">
         <v>2</v>
       </c>
@@ -1421,10 +1421,10 @@
       </c>
     </row>
     <row r="46" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A46" s="14" t="s">
+      <c r="A46" s="16" t="s">
         <v>20</v>
       </c>
-      <c r="B46" s="14"/>
+      <c r="B46" s="16"/>
       <c r="D46">
         <v>1</v>
       </c>
@@ -1446,10 +1446,10 @@
       </c>
     </row>
     <row r="47" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A47" s="14" t="s">
+      <c r="A47" s="16" t="s">
         <v>21</v>
       </c>
-      <c r="B47" s="14"/>
+      <c r="B47" s="16"/>
       <c r="D47">
         <v>4</v>
       </c>
@@ -1471,10 +1471,10 @@
       </c>
     </row>
     <row r="48" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A48" s="17" t="s">
+      <c r="A48" s="18" t="s">
         <v>24</v>
       </c>
-      <c r="B48" s="17"/>
+      <c r="B48" s="18"/>
       <c r="C48" s="1"/>
       <c r="D48" s="1">
         <v>1</v>
@@ -1497,10 +1497,10 @@
       </c>
     </row>
     <row r="49" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A49" s="14" t="s">
+      <c r="A49" s="16" t="s">
         <v>15</v>
       </c>
-      <c r="B49" s="14"/>
+      <c r="B49" s="16"/>
       <c r="D49">
         <v>12</v>
       </c>
@@ -1522,10 +1522,10 @@
       </c>
     </row>
     <row r="50" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A50" s="16" t="s">
+      <c r="A50" s="17" t="s">
         <v>16</v>
       </c>
-      <c r="B50" s="16"/>
+      <c r="B50" s="17"/>
       <c r="C50" s="11"/>
       <c r="D50" s="11">
         <v>22</v>
@@ -1548,10 +1548,10 @@
       </c>
     </row>
     <row r="51" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A51" s="16" t="s">
+      <c r="A51" s="17" t="s">
         <v>26</v>
       </c>
-      <c r="B51" s="16"/>
+      <c r="B51" s="17"/>
       <c r="C51" s="11"/>
       <c r="D51" s="11">
         <v>21</v>
@@ -1589,7 +1589,7 @@
     <row r="55" spans="1:9" ht="17" thickTop="1" x14ac:dyDescent="0.2">
       <c r="H55" s="12">
         <f>$H$8-H54</f>
-        <v>-47.145179999999982</v>
+        <v>23.191870000000009</v>
       </c>
       <c r="I55" s="13" t="s">
         <v>4</v>
@@ -1597,6 +1597,29 @@
     </row>
   </sheetData>
   <mergeCells count="39">
+    <mergeCell ref="A35:B35"/>
+    <mergeCell ref="A27:B27"/>
+    <mergeCell ref="A26:B26"/>
+    <mergeCell ref="A20:B20"/>
+    <mergeCell ref="A21:B21"/>
+    <mergeCell ref="A22:B22"/>
+    <mergeCell ref="A23:B23"/>
+    <mergeCell ref="A24:B24"/>
+    <mergeCell ref="A16:B16"/>
+    <mergeCell ref="A25:B25"/>
+    <mergeCell ref="A1:I1"/>
+    <mergeCell ref="A11:I11"/>
+    <mergeCell ref="A34:I34"/>
+    <mergeCell ref="A12:B12"/>
+    <mergeCell ref="A18:B18"/>
+    <mergeCell ref="A19:B19"/>
+    <mergeCell ref="A17:B17"/>
+    <mergeCell ref="A14:B14"/>
+    <mergeCell ref="A15:B15"/>
+    <mergeCell ref="A2:B2"/>
+    <mergeCell ref="A4:B4"/>
+    <mergeCell ref="A5:B5"/>
+    <mergeCell ref="A6:B6"/>
     <mergeCell ref="A28:B28"/>
     <mergeCell ref="A49:B49"/>
     <mergeCell ref="A50:B50"/>
@@ -1613,29 +1636,6 @@
     <mergeCell ref="A40:B40"/>
     <mergeCell ref="A41:B41"/>
     <mergeCell ref="A42:B42"/>
-    <mergeCell ref="A16:B16"/>
-    <mergeCell ref="A25:B25"/>
-    <mergeCell ref="A1:I1"/>
-    <mergeCell ref="A11:I11"/>
-    <mergeCell ref="A34:I34"/>
-    <mergeCell ref="A35:B35"/>
-    <mergeCell ref="A27:B27"/>
-    <mergeCell ref="A26:B26"/>
-    <mergeCell ref="A20:B20"/>
-    <mergeCell ref="A21:B21"/>
-    <mergeCell ref="A22:B22"/>
-    <mergeCell ref="A23:B23"/>
-    <mergeCell ref="A24:B24"/>
-    <mergeCell ref="A12:B12"/>
-    <mergeCell ref="A18:B18"/>
-    <mergeCell ref="A19:B19"/>
-    <mergeCell ref="A17:B17"/>
-    <mergeCell ref="A14:B14"/>
-    <mergeCell ref="A15:B15"/>
-    <mergeCell ref="A2:B2"/>
-    <mergeCell ref="A4:B4"/>
-    <mergeCell ref="A5:B5"/>
-    <mergeCell ref="A6:B6"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
